--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-OP-SUPPORT-01).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-OP-SUPPORT-01).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,10 @@
   - 검색조건에 맞게 검색이 제대로 되는지 확인한다.
   - 엑셀다운로드가 제대로 되는지 확인한다.
 2. 테스트전 사전 준비 사항(선행 및 데이터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,15 +582,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -595,27 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,7 +1056,7 @@
   <dimension ref="A2:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1067,10 +1071,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1083,110 +1087,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="28" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1201,40 +1205,40 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1248,7 @@
       <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -1263,7 +1267,9 @@
       <c r="F11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1285,7 +1291,9 @@
       <c r="F12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1616,6 +1624,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1626,19 +1647,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1666,10 +1674,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1682,110 +1690,110 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="28" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1813,159 +1821,172 @@
         <v>27</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="38"/>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="38"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="38"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="38"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -1982,19 +2003,6 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2042,58 +2050,58 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
@@ -2264,18 +2272,18 @@
       <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
@@ -2446,16 +2454,16 @@
       <c r="J35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="24"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
@@ -2626,16 +2634,16 @@
       <c r="J50" s="44"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="24"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="42"/>
@@ -2806,16 +2814,16 @@
       <c r="J65" s="44"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="24"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="42"/>
@@ -2986,16 +2994,16 @@
       <c r="J80" s="44"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="24"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="42"/>
@@ -3166,16 +3174,16 @@
       <c r="J95" s="44"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="24"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="42"/>
@@ -3346,16 +3354,16 @@
       <c r="J110" s="44"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="24"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="26"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="42"/>
@@ -3526,16 +3534,16 @@
       <c r="J125" s="44"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="23"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
-      <c r="J126" s="24"/>
+      <c r="A126" s="31"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="26"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="42"/>
@@ -3706,16 +3714,16 @@
       <c r="J140" s="44"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="23"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="34"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="34"/>
-      <c r="I141" s="34"/>
-      <c r="J141" s="24"/>
+      <c r="A141" s="31"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="26"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="42"/>
@@ -3886,16 +3894,16 @@
       <c r="J155" s="44"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="23"/>
-      <c r="B156" s="34"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="24"/>
+      <c r="A156" s="31"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="26"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="42"/>
@@ -4355,21 +4363,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A127:J140"/>
-    <mergeCell ref="A141:J141"/>
-    <mergeCell ref="A142:J155"/>
-    <mergeCell ref="A156:J156"/>
-    <mergeCell ref="A157:J170"/>
-    <mergeCell ref="A96:J96"/>
-    <mergeCell ref="A97:J110"/>
-    <mergeCell ref="A111:J111"/>
-    <mergeCell ref="A112:J125"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J50"/>
-    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J80"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="A82:J95"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:J20"/>
@@ -4377,11 +4375,21 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:J4"/>
-    <mergeCell ref="A52:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J80"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A82:J95"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A96:J96"/>
+    <mergeCell ref="A97:J110"/>
+    <mergeCell ref="A111:J111"/>
+    <mergeCell ref="A112:J125"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="A127:J140"/>
+    <mergeCell ref="A141:J141"/>
+    <mergeCell ref="A142:J155"/>
+    <mergeCell ref="A156:J156"/>
+    <mergeCell ref="A157:J170"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
